--- a/設計書/画面レイアウト/きっかけガチャ.xlsx
+++ b/設計書/画面レイアウト/きっかけガチャ.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takumi/Desktop/卒業研究/SAKURA/設計書/画面レイアウト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B2C48-5BE9-1045-B58A-10C684825C12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F44714-4855-4BC8-B74B-31E596C1745F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="共通レイアウト" sheetId="12" r:id="rId1"/>
+    <sheet name="きっかけガチャ" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">共通レイアウト!$A$1:$AK$56</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">共通レイアウト!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">きっかけガチャ!$A$1:$AK$56</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">きっかけガチャ!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -187,27 +187,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ポイントを使用してガチャを引く。ポイントが足りない場合エラーを表示</t>
-  </si>
-  <si>
-    <t>人数、カテゴリーを選択し、ガチャアイコンをタップ。</t>
-    <rPh sb="0" eb="2">
-      <t>ー</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目が選択されていなければエラーを表示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランダムで趣味とカテゴリーが一致するユーザーを取り</t>
-    <rPh sb="0" eb="2">
-      <t>シュm</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>（１人以上を選択した場合男女ともに選択した人数（選択者を含む）</t>
     <rPh sb="0" eb="1">
       <t>フk</t>
@@ -291,7 +270,58 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラー文</t>
+    <t>人数、カテゴリーを選択し、ガチャアイコンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>ー</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目が選択されていない場合</t>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→エラーメッセージ④を表示する</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→エラーメッセージ⑤を表示する</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダムで趣味とカテゴリーが一致するユーザーをマッチングさせ、</t>
+    <rPh sb="0" eb="2">
+      <t>シュm</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージを表示する</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポイントが不足している場合</t>
+    <rPh sb="5" eb="7">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -526,7 +556,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -578,28 +608,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +635,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,20 +694,27 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -723,8 +762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="241904" y="826427"/>
-          <a:ext cx="5286553" cy="5982231"/>
+          <a:off x="241904" y="783378"/>
+          <a:ext cx="4750782" cy="6252857"/>
           <a:chOff x="241904" y="818385"/>
           <a:chExt cx="5369554" cy="5123474"/>
         </a:xfrm>
@@ -1372,13 +1411,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>96213</xdr:rowOff>
+      <xdr:rowOff>141570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>96212</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1393,8 +1432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1693333" y="4387274"/>
-          <a:ext cx="2328334" cy="1250756"/>
+          <a:off x="1531834" y="4473177"/>
+          <a:ext cx="2102235" cy="1289241"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,11 +1479,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>96214</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>134697</xdr:rowOff>
+      <xdr:rowOff>124732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>96214</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>115453</xdr:rowOff>
     </xdr:to>
@@ -1461,8 +1500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2058941" y="1654849"/>
-          <a:ext cx="1635606" cy="442574"/>
+          <a:off x="1865143" y="1604509"/>
+          <a:ext cx="1740750" cy="466971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,16 +1542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>307880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273836</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>250152</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19243</xdr:rowOff>
+      <xdr:colOff>229454</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1527,8 +1566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1616365" y="2039697"/>
-          <a:ext cx="2886363" cy="269394"/>
+          <a:off x="1154298" y="1962728"/>
+          <a:ext cx="2890492" cy="281684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,14 +1606,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>141238</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226616</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>134698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>307879</xdr:colOff>
+      <xdr:colOff>240126</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:to>
@@ -1591,8 +1630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2103965" y="2270607"/>
-          <a:ext cx="1802247" cy="288635"/>
+          <a:off x="1694053" y="2269152"/>
+          <a:ext cx="1774434" cy="300924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,8 +1698,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2106616" y="4577973"/>
-          <a:ext cx="1572710" cy="247854"/>
+          <a:off x="1917520" y="4724362"/>
+          <a:ext cx="1415131" cy="256875"/>
           <a:chOff x="2655454" y="4714393"/>
           <a:chExt cx="1597122" cy="250152"/>
         </a:xfrm>
@@ -1850,8 +1889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2087372" y="5108329"/>
-          <a:ext cx="1590414" cy="245557"/>
+          <a:off x="1898276" y="5281780"/>
+          <a:ext cx="1432835" cy="263600"/>
           <a:chOff x="2637750" y="4714393"/>
           <a:chExt cx="1614826" cy="250152"/>
         </a:xfrm>
@@ -2017,16 +2056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76971</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>202773</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38485</xdr:rowOff>
+      <xdr:rowOff>49157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57726</xdr:colOff>
+      <xdr:colOff>74705</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38485</xdr:rowOff>
+      <xdr:rowOff>49157</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2041,8 +2080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2039698" y="2482273"/>
-          <a:ext cx="1943483" cy="307879"/>
+          <a:off x="1670210" y="2503779"/>
+          <a:ext cx="1926344" cy="320168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,8 +2216,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3734178" y="3165521"/>
-          <a:ext cx="769583" cy="517667"/>
+          <a:off x="3387503" y="3221702"/>
+          <a:ext cx="681152" cy="553750"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2449,8 +2488,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3686791" y="3961642"/>
-          <a:ext cx="769583" cy="517667"/>
+          <a:off x="3340116" y="4071948"/>
+          <a:ext cx="706552" cy="544729"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2589,8 +2628,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3763370" y="4654265"/>
-          <a:ext cx="769583" cy="517667"/>
+          <a:off x="3416695" y="4800654"/>
+          <a:ext cx="675035" cy="553750"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2703,16 +2742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132686</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>56866</xdr:rowOff>
+      <xdr:rowOff>32018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>208507</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75821</xdr:rowOff>
+      <xdr:rowOff>75822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2727,8 +2766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066119" y="2340970"/>
-          <a:ext cx="1687015" cy="170597"/>
+          <a:off x="1728908" y="2326556"/>
+          <a:ext cx="1707960" cy="203888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2769,10 +2808,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132687</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>113731</xdr:rowOff>
+      <xdr:rowOff>106723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -2793,8 +2832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066120" y="2549477"/>
-          <a:ext cx="1687015" cy="170597"/>
+          <a:off x="1739580" y="2561345"/>
+          <a:ext cx="1697289" cy="186047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2861,8 +2900,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3762612" y="1905000"/>
-          <a:ext cx="769583" cy="517667"/>
+          <a:off x="3415937" y="1889014"/>
+          <a:ext cx="675035" cy="544730"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3001,8 +3040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3763371" y="2152176"/>
-          <a:ext cx="769583" cy="517667"/>
+          <a:off x="3416696" y="2154231"/>
+          <a:ext cx="675035" cy="544730"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3415,60 +3454,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="134" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN42" sqref="AN42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="83" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1640625" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.1796875" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -3509,154 +3548,154 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" ht="14">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:37" ht="12">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="26" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="26" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="26" t="s">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="26" t="s">
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="28"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="58"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="33" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="33" t="s">
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="32"/>
     </row>
-    <row r="5" spans="1:37" ht="14">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="38"/>
+    <row r="5" spans="1:37" ht="12">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="35"/>
     </row>
-    <row r="6" spans="1:37" ht="14">
+    <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3795,13 +3834,13 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="57">
+      <c r="T9" s="25">
         <v>1</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="58" t="s">
-        <v>22</v>
-      </c>
+      <c r="U9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
@@ -3813,7 +3852,6 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="10"/>
@@ -3839,18 +3877,6 @@
       <c r="R10" s="10"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="V10" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
@@ -3878,9 +3904,10 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="57"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
@@ -3918,15 +3945,9 @@
       <c r="R12" s="10"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
+      <c r="U12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
@@ -3956,28 +3977,6 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="57">
-        <v>2</v>
-      </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="10"/>
     </row>
     <row r="14" spans="1:37" ht="12.75" customHeight="1">
       <c r="A14" s="7"/>
@@ -4000,8 +3999,9 @@
       <c r="R14" s="10"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
+      <c r="U14" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -4038,7 +4038,9 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
       <c r="S15" s="9"/>
-      <c r="V15" s="9"/>
+      <c r="U15" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -4075,7 +4077,9 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
       <c r="S16" s="9"/>
-      <c r="V16" s="9"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="25"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -4112,12 +4116,11 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9">
-        <v>3</v>
-      </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="58" t="s">
-        <v>24</v>
+      <c r="T17" s="25">
+        <v>2</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -4157,24 +4160,6 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="10"/>
     </row>
     <row r="19" spans="1:37" ht="12.75" customHeight="1">
       <c r="A19" s="7"/>
@@ -4197,9 +4182,8 @@
       <c r="R19" s="10"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="57" t="s">
-        <v>25</v>
+      <c r="U19" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -4239,24 +4223,6 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="10"/>
     </row>
     <row r="21" spans="1:37" ht="12.75" customHeight="1">
       <c r="A21" s="7"/>
@@ -4279,8 +4245,9 @@
       <c r="R21" s="10"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
+      <c r="U21" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -4318,8 +4285,9 @@
       <c r="R22" s="10"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+      <c r="U22" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
@@ -4358,22 +4326,6 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="10"/>
     </row>
     <row r="24" spans="1:37" ht="12.75" customHeight="1">
       <c r="A24" s="7"/>
@@ -4397,22 +4349,6 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="10"/>
     </row>
     <row r="25" spans="1:37" ht="12.75" customHeight="1">
       <c r="A25" s="7"/>
@@ -4885,8 +4821,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -5027,61 +4963,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="33" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="33" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="33" t="s">
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="32"/>
+      <c r="O41" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="32" t="s">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33" t="s">
+      <c r="R41" s="40"/>
+      <c r="S41" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="34"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="33" t="s">
+      <c r="T41" s="31"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="34"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="33" t="s">
+      <c r="W41" s="31"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="35"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="32"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -5090,43 +5026,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="38"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="34"/>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="34"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="35"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -5135,61 +5071,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="29">
+      <c r="A43" s="27">
         <v>1</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="29" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="29" t="s">
+      <c r="N43" s="29"/>
+      <c r="O43" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="32" t="s">
+      <c r="P43" s="29"/>
+      <c r="Q43" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="32"/>
-      <c r="S43" s="29" t="s">
+      <c r="R43" s="40"/>
+      <c r="S43" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="31"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="29" t="s">
+      <c r="T43" s="28"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="31"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="30"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="60"/>
+      <c r="AG43" s="60"/>
+      <c r="AH43" s="60"/>
+      <c r="AI43" s="60"/>
+      <c r="AJ43" s="60"/>
+      <c r="AK43" s="61"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -5198,61 +5134,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="29">
+      <c r="A44" s="27">
         <v>2</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="29"/>
+      <c r="O44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="40"/>
+      <c r="S44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="28"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" s="28"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="32"/>
-      <c r="S44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="31"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="W44" s="31"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="30"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="60"/>
+      <c r="AI44" s="60"/>
+      <c r="AJ44" s="60"/>
+      <c r="AK44" s="61"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -5261,61 +5197,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="29">
+      <c r="A45" s="27">
         <v>3</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="29" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="29" t="s">
+      <c r="N45" s="29"/>
+      <c r="O45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="32" t="s">
+      <c r="P45" s="29"/>
+      <c r="Q45" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="32"/>
-      <c r="S45" s="29" t="s">
+      <c r="R45" s="40"/>
+      <c r="S45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="31"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="29" t="s">
+      <c r="T45" s="28"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="30"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="60"/>
+      <c r="AK45" s="61"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -5324,61 +5260,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="29">
+      <c r="A46" s="27">
         <v>4</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="29" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="29" t="s">
+      <c r="N46" s="29"/>
+      <c r="O46" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="29" t="s">
+      <c r="P46" s="29"/>
+      <c r="Q46" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="30"/>
-      <c r="S46" s="29" t="s">
+      <c r="R46" s="29"/>
+      <c r="S46" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="31"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="29" t="s">
+      <c r="T46" s="28"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="31"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="30"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="60"/>
+      <c r="AH46" s="60"/>
+      <c r="AI46" s="60"/>
+      <c r="AJ46" s="60"/>
+      <c r="AK46" s="61"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -5387,61 +5323,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="29">
+      <c r="A47" s="27">
         <v>5</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="29" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="29" t="s">
+      <c r="N47" s="29"/>
+      <c r="O47" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="32" t="s">
+      <c r="P47" s="29"/>
+      <c r="Q47" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="32"/>
-      <c r="S47" s="29" t="s">
+      <c r="R47" s="40"/>
+      <c r="S47" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="31"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="29" t="s">
+      <c r="T47" s="28"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="30"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z47" s="60"/>
+      <c r="AA47" s="60"/>
+      <c r="AB47" s="60"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="60"/>
+      <c r="AF47" s="60"/>
+      <c r="AG47" s="60"/>
+      <c r="AH47" s="60"/>
+      <c r="AI47" s="60"/>
+      <c r="AJ47" s="60"/>
+      <c r="AK47" s="61"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -5450,53 +5386,53 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="29">
+      <c r="A48" s="27">
         <v>6</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="29" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="29" t="s">
+      <c r="N48" s="29"/>
+      <c r="O48" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="32" t="s">
+      <c r="P48" s="29"/>
+      <c r="Q48" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="32"/>
-      <c r="S48" s="29" t="s">
+      <c r="R48" s="40"/>
+      <c r="S48" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="31"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="55"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="55"/>
-      <c r="AE48" s="55"/>
-      <c r="AF48" s="55"/>
-      <c r="AG48" s="55"/>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="55"/>
-      <c r="AJ48" s="55"/>
-      <c r="AK48" s="54"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="38"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -5505,55 +5441,55 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="40">
         <v>7</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="29" t="s">
+      <c r="N49" s="40"/>
+      <c r="O49" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="32" t="s">
+      <c r="P49" s="29"/>
+      <c r="Q49" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="32"/>
-      <c r="S49" s="29" t="s">
+      <c r="R49" s="40"/>
+      <c r="S49" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="31"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="29" t="s">
+      <c r="T49" s="28"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="30"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="29"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -5562,55 +5498,55 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="40">
         <v>8</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="32"/>
-      <c r="O50" s="29" t="s">
+      <c r="N50" s="40"/>
+      <c r="O50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="32" t="s">
+      <c r="P50" s="29"/>
+      <c r="Q50" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="32"/>
-      <c r="S50" s="29" t="s">
+      <c r="R50" s="40"/>
+      <c r="S50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="31"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="29" t="s">
+      <c r="T50" s="28"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W50" s="31"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="30"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="29"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -5619,55 +5555,55 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="40">
         <v>9</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="32"/>
-      <c r="O51" s="29" t="s">
+      <c r="N51" s="40"/>
+      <c r="O51" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="32" t="s">
+      <c r="P51" s="29"/>
+      <c r="Q51" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="32"/>
-      <c r="S51" s="29" t="s">
+      <c r="R51" s="40"/>
+      <c r="S51" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T51" s="31"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="29" t="s">
+      <c r="T51" s="28"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W51" s="31"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="30"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="29"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -5676,329 +5612,214 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="55"/>
-      <c r="AB52" s="55"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="55"/>
-      <c r="AJ52" s="55"/>
-      <c r="AK52" s="54"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="37"/>
+      <c r="AK52" s="38"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="55"/>
-      <c r="AA53" s="55"/>
-      <c r="AB53" s="55"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="55"/>
-      <c r="AJ53" s="55"/>
-      <c r="AK53" s="54"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
+      <c r="AK53" s="38"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="55"/>
-      <c r="AB54" s="55"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="55"/>
-      <c r="AJ54" s="55"/>
-      <c r="AK54" s="54"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="37"/>
+      <c r="AK54" s="38"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="55"/>
-      <c r="AJ55" s="55"/>
-      <c r="AK55" s="54"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="38"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="55"/>
-      <c r="AJ56" s="55"/>
-      <c r="AK56" s="54"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
+      <c r="AK56" s="38"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -6019,15 +5840,130 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="Y48:AK48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/きっかけガチャ.xlsx
+++ b/設計書/画面レイアウト/きっかけガチャ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takumi/Desktop/卒業研究/SAKURA/設計書/画面レイアウト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F44714-4855-4BC8-B74B-31E596C1745F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FE49AD-1F1B-2D47-8BFF-FABB11F9F34E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="きっかけガチャ" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -324,6 +324,10 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>を使用する</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +560,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,21 +606,33 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -635,21 +651,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,18 +695,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -715,6 +704,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -723,6 +726,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF185FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -762,8 +770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="241904" y="783378"/>
-          <a:ext cx="4750782" cy="6252857"/>
+          <a:off x="241904" y="836932"/>
+          <a:ext cx="5271023" cy="6030990"/>
           <a:chOff x="241904" y="818385"/>
           <a:chExt cx="5369554" cy="5123474"/>
         </a:xfrm>
@@ -1698,8 +1706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1917520" y="4724362"/>
-          <a:ext cx="1415131" cy="256875"/>
+          <a:off x="2101135" y="4624905"/>
+          <a:ext cx="1568142" cy="249224"/>
           <a:chOff x="2655454" y="4714393"/>
           <a:chExt cx="1597122" cy="250152"/>
         </a:xfrm>
@@ -1889,8 +1897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1898276" y="5281780"/>
-          <a:ext cx="1432835" cy="263600"/>
+          <a:off x="2081891" y="5159371"/>
+          <a:ext cx="1585846" cy="248298"/>
           <a:chOff x="2637750" y="4714393"/>
           <a:chExt cx="1614826" cy="250152"/>
         </a:xfrm>
@@ -2216,8 +2224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3387503" y="3221702"/>
-          <a:ext cx="681152" cy="553750"/>
+          <a:off x="3724129" y="3198750"/>
+          <a:ext cx="767757" cy="523147"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2488,8 +2496,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3340116" y="4071948"/>
-          <a:ext cx="706552" cy="544729"/>
+          <a:off x="3676742" y="4003092"/>
+          <a:ext cx="767757" cy="521778"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2628,8 +2636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3416695" y="4800654"/>
-          <a:ext cx="675035" cy="553750"/>
+          <a:off x="3753321" y="4701197"/>
+          <a:ext cx="766843" cy="523147"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2900,8 +2908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3415937" y="1889014"/>
-          <a:ext cx="675035" cy="544730"/>
+          <a:off x="3752563" y="1927267"/>
+          <a:ext cx="766843" cy="521778"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3040,8 +3048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3416696" y="2154231"/>
-          <a:ext cx="675035" cy="544730"/>
+          <a:off x="3753322" y="2177183"/>
+          <a:ext cx="766843" cy="521778"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3150,6 +3158,286 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>122410</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>215869</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA146F6A-7ADA-3143-AC5D-553E8C1F0F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10083494" y="1071085"/>
+          <a:ext cx="414785" cy="428629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76506</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>122409</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>550843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="ハート 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DAAA8D-6200-1848-9639-0196B30A7960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7145663" y="3733494"/>
+          <a:ext cx="3259156" cy="2800120"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F185FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リクエストを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　送信しました！！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>168315</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122411</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB11381-B589-AE4D-A929-9769F4D5E7C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6916146" y="2754216"/>
+          <a:ext cx="918072" cy="181515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>306025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>99458</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B479B599-1C2F-D247-BAE0-C2D57E641F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="67" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7375182" y="2935731"/>
+          <a:ext cx="1400059" cy="1497793"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3455,61 +3743,61 @@
   <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="83" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+      <selection activeCell="AP31" sqref="AP31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1796875" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1796875" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.1640625" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:38" ht="12.75" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
     </row>
-    <row r="2" spans="1:37" ht="6" customHeight="1">
+    <row r="2" spans="1:38" ht="6" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3548,154 +3836,154 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:38" ht="14">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="56" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="56" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="56" t="s">
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="56" t="s">
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="56" t="s">
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="56" t="s">
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="56" t="s">
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="58"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="29"/>
     </row>
-    <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:38" ht="12" customHeight="1">
+      <c r="A4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="49" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="47" t="s">
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="47" t="s">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="30" t="s">
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="30" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="32"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="36"/>
     </row>
-    <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="35"/>
+    <row r="5" spans="1:38" ht="14">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
     </row>
-    <row r="6" spans="1:37" ht="12">
+    <row r="6" spans="1:38" ht="14">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3732,9 +4020,10 @@
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="23"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="61"/>
     </row>
-    <row r="7" spans="1:37" ht="12.75" customHeight="1">
+    <row r="7" spans="1:38" ht="12.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -3773,9 +4062,10 @@
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="61"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75" customHeight="1">
+    <row r="8" spans="1:38" ht="12.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3812,9 +4102,10 @@
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="10"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="61"/>
     </row>
-    <row r="9" spans="1:37" ht="12.75" customHeight="1">
+    <row r="9" spans="1:38" ht="12.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3834,10 +4125,10 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="25">
+      <c r="T9" s="24">
         <v>1</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="U9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="V9" s="9"/>
@@ -3852,11 +4143,15 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
+      <c r="AH9" s="62" t="s">
+        <v>46</v>
+      </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="10"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="61"/>
     </row>
-    <row r="10" spans="1:37" ht="12.75" customHeight="1">
+    <row r="10" spans="1:38" ht="12.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3882,9 +4177,10 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="10"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="61"/>
     </row>
-    <row r="11" spans="1:37" ht="12.75" customHeight="1">
+    <row r="11" spans="1:38" ht="12.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3904,8 +4200,8 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26" t="s">
+      <c r="T11" s="24"/>
+      <c r="U11" s="25" t="s">
         <v>40</v>
       </c>
       <c r="W11" s="9"/>
@@ -3922,9 +4218,10 @@
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="10"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="61"/>
     </row>
-    <row r="12" spans="1:37" ht="12.75" customHeight="1">
+    <row r="12" spans="1:38" ht="12.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3955,9 +4252,10 @@
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="10"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="61"/>
     </row>
-    <row r="13" spans="1:37" ht="12.75" customHeight="1">
+    <row r="13" spans="1:38" ht="12.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3977,8 +4275,9 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
+      <c r="AL13" s="61"/>
     </row>
-    <row r="14" spans="1:37" ht="12.75" customHeight="1">
+    <row r="14" spans="1:38" ht="12.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3999,7 +4298,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="26" t="s">
+      <c r="U14" s="25" t="s">
         <v>45</v>
       </c>
       <c r="W14" s="9"/>
@@ -4016,9 +4315,10 @@
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
-      <c r="AK14" s="10"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="61"/>
     </row>
-    <row r="15" spans="1:37" ht="12.75" customHeight="1">
+    <row r="15" spans="1:38" ht="12.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4055,9 +4355,10 @@
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
-      <c r="AK15" s="10"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="61"/>
     </row>
-    <row r="16" spans="1:37" ht="12.75" customHeight="1">
+    <row r="16" spans="1:38" ht="12.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4077,9 +4378,9 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="25"/>
+      <c r="T16" s="24"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="25"/>
+      <c r="V16" s="24"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -4094,9 +4395,10 @@
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
-      <c r="AK16" s="10"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="61"/>
     </row>
-    <row r="17" spans="1:37" ht="12.75" customHeight="1">
+    <row r="17" spans="1:38" ht="12.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4116,10 +4418,10 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="25">
+      <c r="T17" s="24">
         <v>2</v>
       </c>
-      <c r="U17" s="26" t="s">
+      <c r="U17" s="25" t="s">
         <v>43</v>
       </c>
       <c r="W17" s="9"/>
@@ -4136,9 +4438,10 @@
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
-      <c r="AK17" s="10"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="61"/>
     </row>
-    <row r="18" spans="1:37" ht="12.75" customHeight="1">
+    <row r="18" spans="1:38" ht="12.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4160,8 +4463,9 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
+      <c r="AL18" s="61"/>
     </row>
-    <row r="19" spans="1:37" ht="12.75" customHeight="1">
+    <row r="19" spans="1:38" ht="12.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4182,7 +4486,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="26" t="s">
+      <c r="U19" s="25" t="s">
         <v>23</v>
       </c>
       <c r="W19" s="9"/>
@@ -4199,9 +4503,10 @@
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
-      <c r="AK19" s="10"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="61"/>
     </row>
-    <row r="20" spans="1:37" ht="12.75" customHeight="1">
+    <row r="20" spans="1:38" ht="12.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4223,8 +4528,9 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
+      <c r="AL20" s="61"/>
     </row>
-    <row r="21" spans="1:37" ht="12.75" customHeight="1">
+    <row r="21" spans="1:38" ht="12.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4245,7 +4551,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="25" t="s">
+      <c r="U21" s="24" t="s">
         <v>21</v>
       </c>
       <c r="W21" s="9"/>
@@ -4262,9 +4568,10 @@
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
-      <c r="AK21" s="10"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="61"/>
     </row>
-    <row r="22" spans="1:37" ht="12.75" customHeight="1">
+    <row r="22" spans="1:38" ht="12.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4285,7 +4592,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="25" t="s">
+      <c r="U22" s="24" t="s">
         <v>22</v>
       </c>
       <c r="W22" s="9"/>
@@ -4302,9 +4609,10 @@
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="10"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="61"/>
     </row>
-    <row r="23" spans="1:37" ht="12.75" customHeight="1">
+    <row r="23" spans="1:38" ht="12.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4326,8 +4634,9 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
+      <c r="AL23" s="61"/>
     </row>
-    <row r="24" spans="1:37" ht="12.75" customHeight="1">
+    <row r="24" spans="1:38" ht="12.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4349,8 +4658,9 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
+      <c r="AL24" s="61"/>
     </row>
-    <row r="25" spans="1:37" ht="12.75" customHeight="1">
+    <row r="25" spans="1:38" ht="12.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4387,9 +4697,10 @@
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
-      <c r="AK25" s="10"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="61"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75" customHeight="1">
+    <row r="26" spans="1:38" ht="12.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4425,9 +4736,10 @@
       <c r="AH26" s="9"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
-      <c r="AK26" s="10"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="61"/>
     </row>
-    <row r="27" spans="1:37" ht="12.75" customHeight="1">
+    <row r="27" spans="1:38" ht="12.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4464,9 +4776,10 @@
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
-      <c r="AK27" s="10"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="61"/>
     </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1">
+    <row r="28" spans="1:38" ht="12.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4503,9 +4816,10 @@
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
-      <c r="AK28" s="10"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="61"/>
     </row>
-    <row r="29" spans="1:37" ht="12.75" customHeight="1">
+    <row r="29" spans="1:38" ht="12.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4544,7 +4858,7 @@
       <c r="AJ29" s="9"/>
       <c r="AK29" s="10"/>
     </row>
-    <row r="30" spans="1:37" ht="12.75" customHeight="1">
+    <row r="30" spans="1:38" ht="12.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4583,7 +4897,7 @@
       <c r="AJ30" s="9"/>
       <c r="AK30" s="10"/>
     </row>
-    <row r="31" spans="1:37" ht="12.75" customHeight="1">
+    <row r="31" spans="1:38" ht="12.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -4622,7 +4936,7 @@
       <c r="AJ31" s="9"/>
       <c r="AK31" s="10"/>
     </row>
-    <row r="32" spans="1:37" ht="12.75" customHeight="1">
+    <row r="32" spans="1:38" ht="12.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="E32" s="9"/>
@@ -4821,8 +5135,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -4963,863 +5277,978 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="30" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="30" t="s">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="30" t="s">
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="36"/>
+      <c r="O41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="40" t="s">
+      <c r="P41" s="36"/>
+      <c r="Q41" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="40"/>
-      <c r="S41" s="30" t="s">
+      <c r="R41" s="33"/>
+      <c r="S41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="31"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="30" t="s">
+      <c r="T41" s="35"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="30" t="s">
+      <c r="W41" s="35"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="24"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
-      <c r="AQ41" s="24"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="35"/>
-      <c r="AL42" s="24"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
-      <c r="AQ42" s="24"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="27">
+      <c r="A43" s="30">
         <v>1</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="27" t="s">
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="27" t="s">
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="27" t="s">
+      <c r="N43" s="31"/>
+      <c r="O43" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="40" t="s">
+      <c r="P43" s="31"/>
+      <c r="Q43" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="40"/>
-      <c r="S43" s="27" t="s">
+      <c r="R43" s="33"/>
+      <c r="S43" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="28"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="27" t="s">
+      <c r="T43" s="32"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="59" t="s">
+      <c r="W43" s="32"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="60"/>
-      <c r="AB43" s="60"/>
-      <c r="AC43" s="60"/>
-      <c r="AD43" s="60"/>
-      <c r="AE43" s="60"/>
-      <c r="AF43" s="60"/>
-      <c r="AG43" s="60"/>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="60"/>
-      <c r="AJ43" s="60"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="24"/>
-      <c r="AM43" s="24"/>
-      <c r="AN43" s="24"/>
-      <c r="AO43" s="24"/>
-      <c r="AP43" s="24"/>
-      <c r="AQ43" s="24"/>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="55"/>
+      <c r="AJ43" s="55"/>
+      <c r="AK43" s="56"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="27">
+      <c r="A44" s="30">
         <v>2</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="27" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="27" t="s">
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="27" t="s">
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="29"/>
-      <c r="O44" s="27" t="s">
+      <c r="N44" s="31"/>
+      <c r="O44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="40" t="s">
+      <c r="P44" s="31"/>
+      <c r="Q44" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="40"/>
-      <c r="S44" s="27" t="s">
+      <c r="R44" s="33"/>
+      <c r="S44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="28"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="27" t="s">
+      <c r="T44" s="32"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="28"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="59" t="s">
+      <c r="W44" s="32"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="61"/>
-      <c r="AL44" s="24"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="24"/>
-      <c r="AO44" s="24"/>
-      <c r="AP44" s="24"/>
-      <c r="AQ44" s="24"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="55"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="55"/>
+      <c r="AJ44" s="55"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="27">
+      <c r="A45" s="30">
         <v>3</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="27" t="s">
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="27" t="s">
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="29"/>
-      <c r="O45" s="27" t="s">
+      <c r="N45" s="31"/>
+      <c r="O45" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="40" t="s">
+      <c r="P45" s="31"/>
+      <c r="Q45" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="40"/>
-      <c r="S45" s="27" t="s">
+      <c r="R45" s="33"/>
+      <c r="S45" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="28"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="27" t="s">
+      <c r="T45" s="32"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="28"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="59" t="s">
+      <c r="W45" s="32"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="60"/>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="61"/>
-      <c r="AL45" s="24"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="24"/>
-      <c r="AP45" s="24"/>
-      <c r="AQ45" s="24"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="55"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="55"/>
+      <c r="AD45" s="55"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="55"/>
+      <c r="AH45" s="55"/>
+      <c r="AI45" s="55"/>
+      <c r="AJ45" s="55"/>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="27">
+      <c r="A46" s="30">
         <v>4</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="27" t="s">
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="27" t="s">
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="29"/>
-      <c r="O46" s="27" t="s">
+      <c r="N46" s="31"/>
+      <c r="O46" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="27" t="s">
+      <c r="P46" s="31"/>
+      <c r="Q46" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="29"/>
-      <c r="S46" s="27" t="s">
+      <c r="R46" s="31"/>
+      <c r="S46" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="28"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="27" t="s">
+      <c r="T46" s="32"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="28"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="59" t="s">
+      <c r="W46" s="32"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="Z46" s="60"/>
-      <c r="AA46" s="60"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="60"/>
-      <c r="AD46" s="60"/>
-      <c r="AE46" s="60"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="60"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="61"/>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
-      <c r="AQ46" s="24"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="27">
+      <c r="A47" s="30">
         <v>5</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="27" t="s">
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="27" t="s">
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="29"/>
-      <c r="O47" s="27" t="s">
+      <c r="N47" s="31"/>
+      <c r="O47" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="40" t="s">
+      <c r="P47" s="31"/>
+      <c r="Q47" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="40"/>
-      <c r="S47" s="27" t="s">
+      <c r="R47" s="33"/>
+      <c r="S47" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="28"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="27" t="s">
+      <c r="T47" s="32"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="28"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="59" t="s">
+      <c r="W47" s="32"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="Z47" s="60"/>
-      <c r="AA47" s="60"/>
-      <c r="AB47" s="60"/>
-      <c r="AC47" s="60"/>
-      <c r="AD47" s="60"/>
-      <c r="AE47" s="60"/>
-      <c r="AF47" s="60"/>
-      <c r="AG47" s="60"/>
-      <c r="AH47" s="60"/>
-      <c r="AI47" s="60"/>
-      <c r="AJ47" s="60"/>
-      <c r="AK47" s="61"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="24"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="55"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="55"/>
+      <c r="AG47" s="55"/>
+      <c r="AH47" s="55"/>
+      <c r="AI47" s="55"/>
+      <c r="AJ47" s="55"/>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="27">
+      <c r="A48" s="30">
         <v>6</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="27" t="s">
+      <c r="B48" s="31"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="27" t="s">
+      <c r="N48" s="31"/>
+      <c r="O48" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="40" t="s">
+      <c r="P48" s="31"/>
+      <c r="Q48" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="40"/>
-      <c r="S48" s="27" t="s">
+      <c r="R48" s="33"/>
+      <c r="S48" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="28"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="38"/>
-      <c r="AL48" s="24"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="24"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
-      <c r="AQ48" s="24"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="59"/>
+      <c r="AA48" s="59"/>
+      <c r="AB48" s="59"/>
+      <c r="AC48" s="59"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="59"/>
+      <c r="AF48" s="59"/>
+      <c r="AG48" s="59"/>
+      <c r="AH48" s="59"/>
+      <c r="AI48" s="59"/>
+      <c r="AJ48" s="59"/>
+      <c r="AK48" s="58"/>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="23"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="23"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="40">
+      <c r="A49" s="33">
         <v>7</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="40"/>
-      <c r="O49" s="27" t="s">
+      <c r="N49" s="33"/>
+      <c r="O49" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="40" t="s">
+      <c r="P49" s="31"/>
+      <c r="Q49" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="40"/>
-      <c r="S49" s="27" t="s">
+      <c r="R49" s="33"/>
+      <c r="S49" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="28"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="27" t="s">
+      <c r="T49" s="32"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="28"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28"/>
-      <c r="AK49" s="29"/>
-      <c r="AL49" s="24"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
-      <c r="AQ49" s="24"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="32"/>
+      <c r="AK49" s="31"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="40">
+      <c r="A50" s="33">
         <v>8</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="40"/>
-      <c r="O50" s="27" t="s">
+      <c r="N50" s="33"/>
+      <c r="O50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="40" t="s">
+      <c r="P50" s="31"/>
+      <c r="Q50" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="40"/>
-      <c r="S50" s="27" t="s">
+      <c r="R50" s="33"/>
+      <c r="S50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="28"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="27" t="s">
+      <c r="T50" s="32"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W50" s="28"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28"/>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="24"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="24"/>
-      <c r="AP50" s="24"/>
-      <c r="AQ50" s="24"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="31"/>
+      <c r="AL50" s="23"/>
+      <c r="AM50" s="23"/>
+      <c r="AN50" s="23"/>
+      <c r="AO50" s="23"/>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="23"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="40">
+      <c r="A51" s="33">
         <v>9</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40" t="s">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="40"/>
-      <c r="O51" s="27" t="s">
+      <c r="N51" s="33"/>
+      <c r="O51" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="40" t="s">
+      <c r="P51" s="31"/>
+      <c r="Q51" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="40"/>
-      <c r="S51" s="27" t="s">
+      <c r="R51" s="33"/>
+      <c r="S51" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T51" s="28"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="27" t="s">
+      <c r="T51" s="32"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="W51" s="28"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28"/>
-      <c r="AK51" s="29"/>
-      <c r="AL51" s="24"/>
-      <c r="AM51" s="24"/>
-      <c r="AN51" s="24"/>
-      <c r="AO51" s="24"/>
-      <c r="AP51" s="24"/>
-      <c r="AQ51" s="24"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="32"/>
+      <c r="AK51" s="31"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="23"/>
+      <c r="AO51" s="23"/>
+      <c r="AP51" s="23"/>
+      <c r="AQ51" s="23"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="36"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37"/>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37"/>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37"/>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37"/>
-      <c r="AK52" s="38"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="58"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
-      <c r="AF53" s="37"/>
-      <c r="AG53" s="37"/>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="37"/>
-      <c r="AJ53" s="37"/>
-      <c r="AK53" s="38"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="59"/>
+      <c r="AE53" s="59"/>
+      <c r="AF53" s="59"/>
+      <c r="AG53" s="59"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="58"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="37"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="37"/>
-      <c r="AE54" s="37"/>
-      <c r="AF54" s="37"/>
-      <c r="AG54" s="37"/>
-      <c r="AH54" s="37"/>
-      <c r="AI54" s="37"/>
-      <c r="AJ54" s="37"/>
-      <c r="AK54" s="38"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="59"/>
+      <c r="AE54" s="59"/>
+      <c r="AF54" s="59"/>
+      <c r="AG54" s="59"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" s="59"/>
+      <c r="AK54" s="58"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="37"/>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="37"/>
-      <c r="AJ55" s="37"/>
-      <c r="AK55" s="38"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="58"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="57"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="59"/>
+      <c r="AE55" s="59"/>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="59"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" s="59"/>
+      <c r="AK55" s="58"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37"/>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="37"/>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="37"/>
-      <c r="AG56" s="37"/>
-      <c r="AH56" s="37"/>
-      <c r="AI56" s="37"/>
-      <c r="AJ56" s="37"/>
-      <c r="AK56" s="38"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="58"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="57"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="58"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -5840,130 +6269,15 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/きっかけガチャ.xlsx
+++ b/設計書/画面レイアウト/きっかけガチャ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takumi/Desktop/卒業研究/SAKURA/設計書/画面レイアウト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FE49AD-1F1B-2D47-8BFF-FABB11F9F34E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54B0FD-AB51-45FD-9EAF-5BF64F43D979}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="きっかけガチャ" sheetId="12" r:id="rId1"/>
@@ -611,28 +611,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,6 +647,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,29 +706,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -770,8 +770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="241904" y="836932"/>
-          <a:ext cx="5271023" cy="6030990"/>
+          <a:off x="241904" y="783378"/>
+          <a:ext cx="4750782" cy="6252857"/>
           <a:chOff x="241904" y="818385"/>
           <a:chExt cx="5369554" cy="5123474"/>
         </a:xfrm>
@@ -1706,8 +1706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2101135" y="4624905"/>
-          <a:ext cx="1568142" cy="249224"/>
+          <a:off x="1917520" y="4724362"/>
+          <a:ext cx="1415131" cy="256875"/>
           <a:chOff x="2655454" y="4714393"/>
           <a:chExt cx="1597122" cy="250152"/>
         </a:xfrm>
@@ -1897,8 +1897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2081891" y="5159371"/>
-          <a:ext cx="1585846" cy="248298"/>
+          <a:off x="1898276" y="5281780"/>
+          <a:ext cx="1432835" cy="263600"/>
           <a:chOff x="2637750" y="4714393"/>
           <a:chExt cx="1614826" cy="250152"/>
         </a:xfrm>
@@ -2224,8 +2224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3724129" y="3198750"/>
-          <a:ext cx="767757" cy="523147"/>
+          <a:off x="3387503" y="3221702"/>
+          <a:ext cx="681152" cy="553750"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2496,8 +2496,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3676742" y="4003092"/>
-          <a:ext cx="767757" cy="521778"/>
+          <a:off x="3340116" y="4071948"/>
+          <a:ext cx="706552" cy="544729"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2636,8 +2636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3753321" y="4701197"/>
-          <a:ext cx="766843" cy="523147"/>
+          <a:off x="3416695" y="4800654"/>
+          <a:ext cx="675035" cy="553750"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2908,8 +2908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3752563" y="1927267"/>
-          <a:ext cx="766843" cy="521778"/>
+          <a:off x="3415937" y="1889014"/>
+          <a:ext cx="675035" cy="544730"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3048,8 +3048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3753322" y="2177183"/>
-          <a:ext cx="766843" cy="521778"/>
+          <a:off x="3416696" y="2154231"/>
+          <a:ext cx="675035" cy="544730"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3162,16 +3162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>122410</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>137712</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>99459</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>215869</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22952</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107304</xdr:rowOff>
+      <xdr:rowOff>61399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3187,7 +3187,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3200,8 +3200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10083494" y="1071085"/>
-          <a:ext cx="414785" cy="428629"/>
+          <a:off x="9402592" y="1140809"/>
+          <a:ext cx="214215" cy="251795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3284,32 +3284,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>リクエストを</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　送信しました！！</a:t>
+            <a:t>リクエストを送信しました！！</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3742,60 +3722,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="83" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP31" sqref="AP31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="83" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1640625" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.1796875" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
     </row>
     <row r="2" spans="1:38" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -3836,103 +3816,103 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:38" ht="14">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:38" ht="12">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="27" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="27" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="27" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="27" t="s">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="27" t="s">
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="27" t="s">
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="29"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="48" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="46" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="46" t="s">
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="43"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
       <c r="AF4" s="34" t="s">
         <v>17</v>
       </c>
@@ -3944,38 +3924,38 @@
       <c r="AJ4" s="35"/>
       <c r="AK4" s="36"/>
     </row>
-    <row r="5" spans="1:38" ht="14">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="45"/>
+    <row r="5" spans="1:38" ht="12">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50"/>
       <c r="AF5" s="37"/>
       <c r="AG5" s="38"/>
       <c r="AH5" s="39"/>
@@ -3983,7 +3963,7 @@
       <c r="AJ5" s="38"/>
       <c r="AK5" s="39"/>
     </row>
-    <row r="6" spans="1:38" ht="14">
+    <row r="6" spans="1:38" ht="12">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4021,7 +4001,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="61"/>
+      <c r="AL6" s="26"/>
     </row>
     <row r="7" spans="1:38" ht="12.75" customHeight="1">
       <c r="A7" s="7"/>
@@ -4063,7 +4043,7 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="61"/>
+      <c r="AL7" s="26"/>
     </row>
     <row r="8" spans="1:38" ht="12.75" customHeight="1">
       <c r="A8" s="7"/>
@@ -4103,7 +4083,7 @@
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
-      <c r="AL8" s="61"/>
+      <c r="AL8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="12.75" customHeight="1">
       <c r="A9" s="7"/>
@@ -4143,13 +4123,13 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
-      <c r="AH9" s="62" t="s">
+      <c r="AH9" s="27" t="s">
         <v>46</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
-      <c r="AL9" s="61"/>
+      <c r="AL9" s="26"/>
     </row>
     <row r="10" spans="1:38" ht="12.75" customHeight="1">
       <c r="A10" s="7"/>
@@ -4178,7 +4158,7 @@
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
-      <c r="AL10" s="61"/>
+      <c r="AL10" s="26"/>
     </row>
     <row r="11" spans="1:38" ht="12.75" customHeight="1">
       <c r="A11" s="7"/>
@@ -4219,7 +4199,7 @@
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
-      <c r="AL11" s="61"/>
+      <c r="AL11" s="26"/>
     </row>
     <row r="12" spans="1:38" ht="12.75" customHeight="1">
       <c r="A12" s="7"/>
@@ -4253,7 +4233,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
-      <c r="AL12" s="61"/>
+      <c r="AL12" s="26"/>
     </row>
     <row r="13" spans="1:38" ht="12.75" customHeight="1">
       <c r="A13" s="7"/>
@@ -4275,7 +4255,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9"/>
-      <c r="AL13" s="61"/>
+      <c r="AL13" s="26"/>
     </row>
     <row r="14" spans="1:38" ht="12.75" customHeight="1">
       <c r="A14" s="7"/>
@@ -4316,7 +4296,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
-      <c r="AL14" s="61"/>
+      <c r="AL14" s="26"/>
     </row>
     <row r="15" spans="1:38" ht="12.75" customHeight="1">
       <c r="A15" s="7"/>
@@ -4356,7 +4336,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="61"/>
+      <c r="AL15" s="26"/>
     </row>
     <row r="16" spans="1:38" ht="12.75" customHeight="1">
       <c r="A16" s="7"/>
@@ -4396,7 +4376,7 @@
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
-      <c r="AL16" s="61"/>
+      <c r="AL16" s="26"/>
     </row>
     <row r="17" spans="1:38" ht="12.75" customHeight="1">
       <c r="A17" s="7"/>
@@ -4439,7 +4419,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
-      <c r="AL17" s="61"/>
+      <c r="AL17" s="26"/>
     </row>
     <row r="18" spans="1:38" ht="12.75" customHeight="1">
       <c r="A18" s="7"/>
@@ -4463,7 +4443,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="AL18" s="61"/>
+      <c r="AL18" s="26"/>
     </row>
     <row r="19" spans="1:38" ht="12.75" customHeight="1">
       <c r="A19" s="7"/>
@@ -4504,7 +4484,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
-      <c r="AL19" s="61"/>
+      <c r="AL19" s="26"/>
     </row>
     <row r="20" spans="1:38" ht="12.75" customHeight="1">
       <c r="A20" s="7"/>
@@ -4528,7 +4508,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="AL20" s="61"/>
+      <c r="AL20" s="26"/>
     </row>
     <row r="21" spans="1:38" ht="12.75" customHeight="1">
       <c r="A21" s="7"/>
@@ -4569,7 +4549,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
-      <c r="AL21" s="61"/>
+      <c r="AL21" s="26"/>
     </row>
     <row r="22" spans="1:38" ht="12.75" customHeight="1">
       <c r="A22" s="7"/>
@@ -4610,7 +4590,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
-      <c r="AL22" s="61"/>
+      <c r="AL22" s="26"/>
     </row>
     <row r="23" spans="1:38" ht="12.75" customHeight="1">
       <c r="A23" s="7"/>
@@ -4634,7 +4614,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="AL23" s="61"/>
+      <c r="AL23" s="26"/>
     </row>
     <row r="24" spans="1:38" ht="12.75" customHeight="1">
       <c r="A24" s="7"/>
@@ -4658,7 +4638,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="AL24" s="61"/>
+      <c r="AL24" s="26"/>
     </row>
     <row r="25" spans="1:38" ht="12.75" customHeight="1">
       <c r="A25" s="7"/>
@@ -4698,7 +4678,7 @@
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
-      <c r="AL25" s="61"/>
+      <c r="AL25" s="26"/>
     </row>
     <row r="26" spans="1:38" ht="12.75" customHeight="1">
       <c r="A26" s="7"/>
@@ -4737,7 +4717,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
-      <c r="AL26" s="61"/>
+      <c r="AL26" s="26"/>
     </row>
     <row r="27" spans="1:38" ht="12.75" customHeight="1">
       <c r="A27" s="7"/>
@@ -4777,7 +4757,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
-      <c r="AL27" s="61"/>
+      <c r="AL27" s="26"/>
     </row>
     <row r="28" spans="1:38" ht="12.75" customHeight="1">
       <c r="A28" s="7"/>
@@ -4817,7 +4797,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
-      <c r="AL28" s="61"/>
+      <c r="AL28" s="26"/>
     </row>
     <row r="29" spans="1:38" ht="12.75" customHeight="1">
       <c r="A29" s="7"/>
@@ -5135,8 +5115,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -5303,10 +5283,10 @@
         <v>13</v>
       </c>
       <c r="P41" s="36"/>
-      <c r="Q41" s="33" t="s">
+      <c r="Q41" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="33"/>
+      <c r="R41" s="44"/>
       <c r="S41" s="34" t="s">
         <v>19</v>
       </c>
@@ -5356,8 +5336,8 @@
       <c r="N42" s="39"/>
       <c r="O42" s="37"/>
       <c r="P42" s="39"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
       <c r="S42" s="37"/>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
@@ -5385,61 +5365,61 @@
       <c r="AQ42" s="23"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="30">
+      <c r="A43" s="31">
         <v>1</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="30" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="30" t="s">
+      <c r="H43" s="33"/>
+      <c r="I43" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="30" t="s">
+      <c r="L43" s="33"/>
+      <c r="M43" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="31"/>
-      <c r="O43" s="30" t="s">
+      <c r="N43" s="33"/>
+      <c r="O43" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="33" t="s">
+      <c r="P43" s="33"/>
+      <c r="Q43" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="33"/>
-      <c r="S43" s="30" t="s">
+      <c r="R43" s="44"/>
+      <c r="S43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T43" s="32"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="30" t="s">
+      <c r="U43" s="33"/>
+      <c r="V43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W43" s="32"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="54" t="s">
+      <c r="X43" s="33"/>
+      <c r="Y43" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="56"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="30"/>
       <c r="AL43" s="23"/>
       <c r="AM43" s="23"/>
       <c r="AN43" s="23"/>
@@ -5448,61 +5428,61 @@
       <c r="AQ43" s="23"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="30">
+      <c r="A44" s="31">
         <v>2</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="30" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="30" t="s">
+      <c r="H44" s="33"/>
+      <c r="I44" s="31" t="s">
         <v>33</v>
       </c>
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="30" t="s">
+      <c r="L44" s="33"/>
+      <c r="M44" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="30" t="s">
+      <c r="N44" s="33"/>
+      <c r="O44" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="33" t="s">
+      <c r="P44" s="33"/>
+      <c r="Q44" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="33"/>
-      <c r="S44" s="30" t="s">
+      <c r="R44" s="44"/>
+      <c r="S44" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T44" s="32"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="30" t="s">
+      <c r="U44" s="33"/>
+      <c r="V44" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W44" s="32"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="54" t="s">
+      <c r="X44" s="33"/>
+      <c r="Y44" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="56"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="30"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
       <c r="AN44" s="23"/>
@@ -5511,61 +5491,61 @@
       <c r="AQ44" s="23"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="30">
+      <c r="A45" s="31">
         <v>3</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="30" t="s">
+      <c r="H45" s="33"/>
+      <c r="I45" s="31" t="s">
         <v>33</v>
       </c>
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="30" t="s">
+      <c r="L45" s="33"/>
+      <c r="M45" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="31"/>
-      <c r="O45" s="30" t="s">
+      <c r="N45" s="33"/>
+      <c r="O45" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="33" t="s">
+      <c r="P45" s="33"/>
+      <c r="Q45" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="33"/>
-      <c r="S45" s="30" t="s">
+      <c r="R45" s="44"/>
+      <c r="S45" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T45" s="32"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="30" t="s">
+      <c r="U45" s="33"/>
+      <c r="V45" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W45" s="32"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="54" t="s">
+      <c r="X45" s="33"/>
+      <c r="Y45" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="55"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="55"/>
-      <c r="AE45" s="55"/>
-      <c r="AF45" s="55"/>
-      <c r="AG45" s="55"/>
-      <c r="AH45" s="55"/>
-      <c r="AI45" s="55"/>
-      <c r="AJ45" s="55"/>
-      <c r="AK45" s="56"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="23"/>
       <c r="AM45" s="23"/>
       <c r="AN45" s="23"/>
@@ -5574,61 +5554,61 @@
       <c r="AQ45" s="23"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="30">
+      <c r="A46" s="31">
         <v>4</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="30" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="30" t="s">
+      <c r="H46" s="33"/>
+      <c r="I46" s="31" t="s">
         <v>38</v>
       </c>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="30" t="s">
+      <c r="L46" s="33"/>
+      <c r="M46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="31"/>
-      <c r="O46" s="30" t="s">
+      <c r="N46" s="33"/>
+      <c r="O46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="30" t="s">
+      <c r="P46" s="33"/>
+      <c r="Q46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="31"/>
-      <c r="S46" s="30" t="s">
+      <c r="R46" s="33"/>
+      <c r="S46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T46" s="32"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="30" t="s">
+      <c r="U46" s="33"/>
+      <c r="V46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W46" s="32"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="54" t="s">
+      <c r="X46" s="33"/>
+      <c r="Y46" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-      <c r="AC46" s="55"/>
-      <c r="AD46" s="55"/>
-      <c r="AE46" s="55"/>
-      <c r="AF46" s="55"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="55"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="56"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="23"/>
       <c r="AM46" s="23"/>
       <c r="AN46" s="23"/>
@@ -5637,61 +5617,61 @@
       <c r="AQ46" s="23"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="30">
+      <c r="A47" s="31">
         <v>5</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="30" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="30" t="s">
+      <c r="H47" s="33"/>
+      <c r="I47" s="31" t="s">
         <v>38</v>
       </c>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="30" t="s">
+      <c r="L47" s="33"/>
+      <c r="M47" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="31"/>
-      <c r="O47" s="30" t="s">
+      <c r="N47" s="33"/>
+      <c r="O47" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="33" t="s">
+      <c r="P47" s="33"/>
+      <c r="Q47" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="33"/>
-      <c r="S47" s="30" t="s">
+      <c r="R47" s="44"/>
+      <c r="S47" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T47" s="32"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="30" t="s">
+      <c r="U47" s="33"/>
+      <c r="V47" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W47" s="32"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="54" t="s">
+      <c r="X47" s="33"/>
+      <c r="Y47" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="55"/>
-      <c r="AE47" s="55"/>
-      <c r="AF47" s="55"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="55"/>
-      <c r="AI47" s="55"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="56"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
       <c r="AN47" s="23"/>
@@ -5700,53 +5680,53 @@
       <c r="AQ47" s="23"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="30">
+      <c r="A48" s="31">
         <v>6</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="30"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="30" t="s">
+      <c r="L48" s="33"/>
+      <c r="M48" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="31"/>
-      <c r="O48" s="30" t="s">
+      <c r="N48" s="33"/>
+      <c r="O48" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="33" t="s">
+      <c r="P48" s="33"/>
+      <c r="Q48" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="33"/>
-      <c r="S48" s="30" t="s">
+      <c r="R48" s="44"/>
+      <c r="S48" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T48" s="32"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="30"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="31"/>
       <c r="W48" s="32"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="59"/>
-      <c r="AA48" s="59"/>
-      <c r="AB48" s="59"/>
-      <c r="AC48" s="59"/>
-      <c r="AD48" s="59"/>
-      <c r="AE48" s="59"/>
-      <c r="AF48" s="59"/>
-      <c r="AG48" s="59"/>
-      <c r="AH48" s="59"/>
-      <c r="AI48" s="59"/>
-      <c r="AJ48" s="59"/>
-      <c r="AK48" s="58"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="41"/>
+      <c r="AH48" s="41"/>
+      <c r="AI48" s="41"/>
+      <c r="AJ48" s="41"/>
+      <c r="AK48" s="42"/>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
       <c r="AN48" s="23"/>
@@ -5755,43 +5735,43 @@
       <c r="AQ48" s="23"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="44">
         <v>7</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="33"/>
-      <c r="O49" s="30" t="s">
+      <c r="N49" s="44"/>
+      <c r="O49" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="33" t="s">
+      <c r="P49" s="33"/>
+      <c r="Q49" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="33"/>
-      <c r="S49" s="30" t="s">
+      <c r="R49" s="44"/>
+      <c r="S49" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T49" s="32"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="30" t="s">
+      <c r="U49" s="33"/>
+      <c r="V49" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W49" s="32"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="30"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="31"/>
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
       <c r="AB49" s="32"/>
@@ -5803,7 +5783,7 @@
       <c r="AH49" s="32"/>
       <c r="AI49" s="32"/>
       <c r="AJ49" s="32"/>
-      <c r="AK49" s="31"/>
+      <c r="AK49" s="33"/>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23"/>
       <c r="AN49" s="23"/>
@@ -5812,43 +5792,43 @@
       <c r="AQ49" s="23"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="33">
+      <c r="A50" s="44">
         <v>8</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="33"/>
-      <c r="O50" s="30" t="s">
+      <c r="N50" s="44"/>
+      <c r="O50" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="33" t="s">
+      <c r="P50" s="33"/>
+      <c r="Q50" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="33"/>
-      <c r="S50" s="30" t="s">
+      <c r="R50" s="44"/>
+      <c r="S50" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T50" s="32"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="30" t="s">
+      <c r="U50" s="33"/>
+      <c r="V50" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W50" s="32"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="30"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="31"/>
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
       <c r="AB50" s="32"/>
@@ -5860,7 +5840,7 @@
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
       <c r="AJ50" s="32"/>
-      <c r="AK50" s="31"/>
+      <c r="AK50" s="33"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
       <c r="AN50" s="23"/>
@@ -5869,43 +5849,43 @@
       <c r="AQ50" s="23"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="33">
+      <c r="A51" s="44">
         <v>9</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="33"/>
-      <c r="O51" s="30" t="s">
+      <c r="N51" s="44"/>
+      <c r="O51" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="33" t="s">
+      <c r="P51" s="33"/>
+      <c r="Q51" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="33"/>
-      <c r="S51" s="30" t="s">
+      <c r="R51" s="44"/>
+      <c r="S51" s="31" t="s">
         <v>16</v>
       </c>
       <c r="T51" s="32"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="30" t="s">
+      <c r="U51" s="33"/>
+      <c r="V51" s="31" t="s">
         <v>16</v>
       </c>
       <c r="W51" s="32"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="30"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="31"/>
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
       <c r="AB51" s="32"/>
@@ -5917,7 +5897,7 @@
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
       <c r="AJ51" s="32"/>
-      <c r="AK51" s="31"/>
+      <c r="AK51" s="33"/>
       <c r="AL51" s="23"/>
       <c r="AM51" s="23"/>
       <c r="AN51" s="23"/>
@@ -5926,329 +5906,214 @@
       <c r="AQ51" s="23"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="57"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="60"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="59"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="59"/>
-      <c r="AE52" s="59"/>
-      <c r="AF52" s="59"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="59"/>
-      <c r="AI52" s="59"/>
-      <c r="AJ52" s="59"/>
-      <c r="AK52" s="58"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="41"/>
+      <c r="AC52" s="41"/>
+      <c r="AD52" s="41"/>
+      <c r="AE52" s="41"/>
+      <c r="AF52" s="41"/>
+      <c r="AG52" s="41"/>
+      <c r="AH52" s="41"/>
+      <c r="AI52" s="41"/>
+      <c r="AJ52" s="41"/>
+      <c r="AK52" s="42"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="57"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="59"/>
-      <c r="AB53" s="59"/>
-      <c r="AC53" s="59"/>
-      <c r="AD53" s="59"/>
-      <c r="AE53" s="59"/>
-      <c r="AF53" s="59"/>
-      <c r="AG53" s="59"/>
-      <c r="AH53" s="59"/>
-      <c r="AI53" s="59"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="58"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41"/>
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="42"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="60"/>
-      <c r="W54" s="60"/>
-      <c r="X54" s="60"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="59"/>
-      <c r="AC54" s="59"/>
-      <c r="AD54" s="59"/>
-      <c r="AE54" s="59"/>
-      <c r="AF54" s="59"/>
-      <c r="AG54" s="59"/>
-      <c r="AH54" s="59"/>
-      <c r="AI54" s="59"/>
-      <c r="AJ54" s="59"/>
-      <c r="AK54" s="58"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="41"/>
+      <c r="AG54" s="41"/>
+      <c r="AH54" s="41"/>
+      <c r="AI54" s="41"/>
+      <c r="AJ54" s="41"/>
+      <c r="AK54" s="42"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="57"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="60"/>
-      <c r="W55" s="60"/>
-      <c r="X55" s="60"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="59"/>
-      <c r="AA55" s="59"/>
-      <c r="AB55" s="59"/>
-      <c r="AC55" s="59"/>
-      <c r="AD55" s="59"/>
-      <c r="AE55" s="59"/>
-      <c r="AF55" s="59"/>
-      <c r="AG55" s="59"/>
-      <c r="AH55" s="59"/>
-      <c r="AI55" s="59"/>
-      <c r="AJ55" s="59"/>
-      <c r="AK55" s="58"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41"/>
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="41"/>
+      <c r="AG55" s="41"/>
+      <c r="AH55" s="41"/>
+      <c r="AI55" s="41"/>
+      <c r="AJ55" s="41"/>
+      <c r="AK55" s="42"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="57"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="60"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="59"/>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="59"/>
-      <c r="AG56" s="59"/>
-      <c r="AH56" s="59"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" s="59"/>
-      <c r="AK56" s="58"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="41"/>
+      <c r="AB56" s="41"/>
+      <c r="AC56" s="41"/>
+      <c r="AD56" s="41"/>
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="41"/>
+      <c r="AG56" s="41"/>
+      <c r="AH56" s="41"/>
+      <c r="AI56" s="41"/>
+      <c r="AJ56" s="41"/>
+      <c r="AK56" s="42"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -6269,15 +6134,130 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="Y48:AK48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/きっかけガチャ.xlsx
+++ b/設計書/画面レイアウト/きっかけガチャ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54B0FD-AB51-45FD-9EAF-5BF64F43D979}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD185441-90FB-4990-A877-78054E1FFF35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,22 +613,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,21 +653,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,17 +697,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -770,8 +770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="241904" y="783378"/>
-          <a:ext cx="4750782" cy="6252857"/>
+          <a:off x="241904" y="779039"/>
+          <a:ext cx="4803194" cy="6266560"/>
           <a:chOff x="241904" y="818385"/>
           <a:chExt cx="5369554" cy="5123474"/>
         </a:xfrm>
@@ -1706,8 +1706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1917520" y="4724362"/>
-          <a:ext cx="1415131" cy="256875"/>
+          <a:off x="1936019" y="4729615"/>
+          <a:ext cx="1430546" cy="257332"/>
           <a:chOff x="2655454" y="4714393"/>
           <a:chExt cx="1597122" cy="250152"/>
         </a:xfrm>
@@ -1897,8 +1897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1898276" y="5281780"/>
-          <a:ext cx="1432835" cy="263600"/>
+          <a:off x="1916775" y="5288403"/>
+          <a:ext cx="1448250" cy="264513"/>
           <a:chOff x="2637750" y="4714393"/>
           <a:chExt cx="1614826" cy="250152"/>
         </a:xfrm>
@@ -2224,8 +2224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3387503" y="3221702"/>
-          <a:ext cx="681152" cy="553750"/>
+          <a:off x="3421417" y="3222387"/>
+          <a:ext cx="687318" cy="555577"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2496,8 +2496,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3340116" y="4071948"/>
-          <a:ext cx="706552" cy="544729"/>
+          <a:off x="3374030" y="4075374"/>
+          <a:ext cx="712718" cy="546099"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2636,8 +2636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3416695" y="4800654"/>
-          <a:ext cx="675035" cy="553750"/>
+          <a:off x="3450609" y="4805907"/>
+          <a:ext cx="684285" cy="555577"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -2908,8 +2908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3415937" y="1889014"/>
-          <a:ext cx="675035" cy="544730"/>
+          <a:off x="3449851" y="1886045"/>
+          <a:ext cx="684285" cy="546100"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3048,8 +3048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3416696" y="2154231"/>
-          <a:ext cx="675035" cy="544730"/>
+          <a:off x="3450610" y="2152176"/>
+          <a:ext cx="684285" cy="546100"/>
           <a:chOff x="1327150" y="3184525"/>
           <a:chExt cx="1195232" cy="549912"/>
         </a:xfrm>
@@ -3163,15 +3163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>99459</xdr:colOff>
+      <xdr:colOff>52071</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>130929</xdr:rowOff>
+      <xdr:rowOff>111974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22952</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>269370</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>61399</xdr:rowOff>
+      <xdr:rowOff>42444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3200,8 +3200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9402592" y="1140809"/>
-          <a:ext cx="214215" cy="251795"/>
+          <a:off x="9453862" y="1116601"/>
+          <a:ext cx="217299" cy="252709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3722,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="83" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="67" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3737,45 +3737,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="12.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
     </row>
     <row r="2" spans="1:38" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -3817,151 +3817,151 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="12">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="60" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="60" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="60" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="60" t="s">
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="60" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="60" t="s">
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="60" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="62"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="31"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="53" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="51" t="s">
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="51" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="34" t="s">
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="34" t="s">
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="36"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="1:38" ht="12">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="41"/>
     </row>
     <row r="6" spans="1:38" ht="12">
       <c r="A6" s="3"/>
@@ -5115,8 +5115,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -5257,61 +5257,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="34" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="34" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="34" t="s">
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="34" t="s">
+      <c r="N41" s="38"/>
+      <c r="O41" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="44" t="s">
+      <c r="P41" s="38"/>
+      <c r="Q41" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="44"/>
-      <c r="S41" s="34" t="s">
+      <c r="R41" s="35"/>
+      <c r="S41" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="35"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="34" t="s">
+      <c r="T41" s="37"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="35"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="34" t="s">
+      <c r="W41" s="37"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="36"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="38"/>
       <c r="AL41" s="23"/>
       <c r="AM41" s="23"/>
       <c r="AN41" s="23"/>
@@ -5320,43 +5320,43 @@
       <c r="AQ41" s="23"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="39"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
+      <c r="AK42" s="41"/>
       <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
       <c r="AN42" s="23"/>
@@ -5365,61 +5365,61 @@
       <c r="AQ42" s="23"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="31">
+      <c r="A43" s="32">
         <v>1</v>
       </c>
       <c r="B43" s="33"/>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="31" t="s">
+      <c r="M43" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N43" s="33"/>
-      <c r="O43" s="31" t="s">
+      <c r="O43" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P43" s="33"/>
-      <c r="Q43" s="44" t="s">
+      <c r="Q43" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="44"/>
-      <c r="S43" s="31" t="s">
+      <c r="R43" s="35"/>
+      <c r="S43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="32"/>
+      <c r="T43" s="34"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="31" t="s">
+      <c r="V43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="32"/>
+      <c r="W43" s="34"/>
       <c r="X43" s="33"/>
-      <c r="Y43" s="28" t="s">
+      <c r="Y43" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29"/>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="30"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="58"/>
       <c r="AL43" s="23"/>
       <c r="AM43" s="23"/>
       <c r="AN43" s="23"/>
@@ -5428,61 +5428,61 @@
       <c r="AQ43" s="23"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="31">
+      <c r="A44" s="32">
         <v>2</v>
       </c>
       <c r="B44" s="33"/>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N44" s="33"/>
-      <c r="O44" s="31" t="s">
+      <c r="O44" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P44" s="33"/>
-      <c r="Q44" s="44" t="s">
+      <c r="Q44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="44"/>
-      <c r="S44" s="31" t="s">
+      <c r="R44" s="35"/>
+      <c r="S44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="32"/>
+      <c r="T44" s="34"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="31" t="s">
+      <c r="V44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="32"/>
+      <c r="W44" s="34"/>
       <c r="X44" s="33"/>
-      <c r="Y44" s="28" t="s">
+      <c r="Y44" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="30"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="58"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
       <c r="AN44" s="23"/>
@@ -5491,61 +5491,61 @@
       <c r="AQ44" s="23"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="31">
+      <c r="A45" s="32">
         <v>3</v>
       </c>
       <c r="B45" s="33"/>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="31" t="s">
+      <c r="M45" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N45" s="33"/>
-      <c r="O45" s="31" t="s">
+      <c r="O45" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P45" s="33"/>
-      <c r="Q45" s="44" t="s">
+      <c r="Q45" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="44"/>
-      <c r="S45" s="31" t="s">
+      <c r="R45" s="35"/>
+      <c r="S45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="32"/>
+      <c r="T45" s="34"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="31" t="s">
+      <c r="V45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="32"/>
+      <c r="W45" s="34"/>
       <c r="X45" s="33"/>
-      <c r="Y45" s="28" t="s">
+      <c r="Y45" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="30"/>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="57"/>
+      <c r="AB45" s="57"/>
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="57"/>
+      <c r="AE45" s="57"/>
+      <c r="AF45" s="57"/>
+      <c r="AG45" s="57"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="57"/>
+      <c r="AK45" s="58"/>
       <c r="AL45" s="23"/>
       <c r="AM45" s="23"/>
       <c r="AN45" s="23"/>
@@ -5554,61 +5554,61 @@
       <c r="AQ45" s="23"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="31">
+      <c r="A46" s="32">
         <v>4</v>
       </c>
       <c r="B46" s="33"/>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="31" t="s">
+      <c r="M46" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N46" s="33"/>
-      <c r="O46" s="31" t="s">
+      <c r="O46" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P46" s="33"/>
-      <c r="Q46" s="31" t="s">
+      <c r="Q46" s="32" t="s">
         <v>16</v>
       </c>
       <c r="R46" s="33"/>
-      <c r="S46" s="31" t="s">
+      <c r="S46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="32"/>
+      <c r="T46" s="34"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="31" t="s">
+      <c r="V46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="32"/>
+      <c r="W46" s="34"/>
       <c r="X46" s="33"/>
-      <c r="Y46" s="28" t="s">
+      <c r="Y46" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="30"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="57"/>
+      <c r="AK46" s="58"/>
       <c r="AL46" s="23"/>
       <c r="AM46" s="23"/>
       <c r="AN46" s="23"/>
@@ -5617,61 +5617,61 @@
       <c r="AQ46" s="23"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="31">
+      <c r="A47" s="32">
         <v>5</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="31" t="s">
+      <c r="I47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="33"/>
-      <c r="M47" s="31" t="s">
+      <c r="M47" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="33"/>
-      <c r="O47" s="31" t="s">
+      <c r="O47" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="33"/>
-      <c r="Q47" s="44" t="s">
+      <c r="Q47" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="44"/>
-      <c r="S47" s="31" t="s">
+      <c r="R47" s="35"/>
+      <c r="S47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="32"/>
+      <c r="T47" s="34"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="31" t="s">
+      <c r="V47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="32"/>
+      <c r="W47" s="34"/>
       <c r="X47" s="33"/>
-      <c r="Y47" s="28" t="s">
+      <c r="Y47" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="30"/>
+      <c r="Z47" s="57"/>
+      <c r="AA47" s="57"/>
+      <c r="AB47" s="57"/>
+      <c r="AC47" s="57"/>
+      <c r="AD47" s="57"/>
+      <c r="AE47" s="57"/>
+      <c r="AF47" s="57"/>
+      <c r="AG47" s="57"/>
+      <c r="AH47" s="57"/>
+      <c r="AI47" s="57"/>
+      <c r="AJ47" s="57"/>
+      <c r="AK47" s="58"/>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
       <c r="AN47" s="23"/>
@@ -5680,53 +5680,53 @@
       <c r="AQ47" s="23"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="31">
+      <c r="A48" s="32">
         <v>6</v>
       </c>
       <c r="B48" s="33"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="31" t="s">
+      <c r="M48" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="33"/>
-      <c r="O48" s="31" t="s">
+      <c r="O48" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P48" s="33"/>
-      <c r="Q48" s="44" t="s">
+      <c r="Q48" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="44"/>
-      <c r="S48" s="31" t="s">
+      <c r="R48" s="35"/>
+      <c r="S48" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="32"/>
+      <c r="T48" s="34"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="34"/>
       <c r="X48" s="33"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41"/>
-      <c r="AF48" s="41"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="41"/>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="42"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="60"/>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
       <c r="AN48" s="23"/>
@@ -5735,54 +5735,54 @@
       <c r="AQ48" s="23"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="44">
+      <c r="A49" s="35">
         <v>7</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="44"/>
-      <c r="O49" s="31" t="s">
+      <c r="N49" s="35"/>
+      <c r="O49" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P49" s="33"/>
-      <c r="Q49" s="44" t="s">
+      <c r="Q49" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="44"/>
-      <c r="S49" s="31" t="s">
+      <c r="R49" s="35"/>
+      <c r="S49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="32"/>
+      <c r="T49" s="34"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="31" t="s">
+      <c r="V49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="32"/>
+      <c r="W49" s="34"/>
       <c r="X49" s="33"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="32"/>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
-      <c r="AJ49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
       <c r="AK49" s="33"/>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23"/>
@@ -5792,54 +5792,54 @@
       <c r="AQ49" s="23"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="44">
+      <c r="A50" s="35">
         <v>8</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44" t="s">
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="44"/>
-      <c r="O50" s="31" t="s">
+      <c r="N50" s="35"/>
+      <c r="O50" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P50" s="33"/>
-      <c r="Q50" s="44" t="s">
+      <c r="Q50" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="44"/>
-      <c r="S50" s="31" t="s">
+      <c r="R50" s="35"/>
+      <c r="S50" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="32"/>
+      <c r="T50" s="34"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="31" t="s">
+      <c r="V50" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W50" s="32"/>
+      <c r="W50" s="34"/>
       <c r="X50" s="33"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-      <c r="AJ50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
       <c r="AK50" s="33"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
@@ -5849,54 +5849,54 @@
       <c r="AQ50" s="23"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="44">
+      <c r="A51" s="35">
         <v>9</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44" t="s">
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="44"/>
-      <c r="O51" s="31" t="s">
+      <c r="N51" s="35"/>
+      <c r="O51" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P51" s="33"/>
-      <c r="Q51" s="44" t="s">
+      <c r="Q51" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="44"/>
-      <c r="S51" s="31" t="s">
+      <c r="R51" s="35"/>
+      <c r="S51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T51" s="32"/>
+      <c r="T51" s="34"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="31" t="s">
+      <c r="V51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W51" s="32"/>
+      <c r="W51" s="34"/>
       <c r="X51" s="33"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="32"/>
-      <c r="AJ51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
       <c r="AK51" s="33"/>
       <c r="AL51" s="23"/>
       <c r="AM51" s="23"/>
@@ -5906,214 +5906,329 @@
       <c r="AQ51" s="23"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="40"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="41"/>
-      <c r="AD52" s="41"/>
-      <c r="AE52" s="41"/>
-      <c r="AF52" s="41"/>
-      <c r="AG52" s="41"/>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="41"/>
-      <c r="AK52" s="42"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="60"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="40"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41"/>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="41"/>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="42"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="60"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="40"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="41"/>
-      <c r="AF54" s="41"/>
-      <c r="AG54" s="41"/>
-      <c r="AH54" s="41"/>
-      <c r="AI54" s="41"/>
-      <c r="AJ54" s="41"/>
-      <c r="AK54" s="42"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="60"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="40"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41"/>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41"/>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="42"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="60"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="41"/>
-      <c r="AC56" s="41"/>
-      <c r="AD56" s="41"/>
-      <c r="AE56" s="41"/>
-      <c r="AF56" s="41"/>
-      <c r="AG56" s="41"/>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="41"/>
-      <c r="AJ56" s="41"/>
-      <c r="AK56" s="42"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="60"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -6134,130 +6249,15 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
